--- a/branches/Richard/all-profiles.xlsx
+++ b/branches/Richard/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T07:18:49+00:00</t>
+    <t>2023-02-08T06:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/all-profiles.xlsx
+++ b/branches/Richard/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:02:36+00:00</t>
+    <t>2023-02-08T06:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/all-profiles.xlsx
+++ b/branches/Richard/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13161,7 +13161,7 @@
         <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -17975,7 +17975,7 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>

--- a/branches/Richard/all-profiles.xlsx
+++ b/branches/Richard/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/all-profiles.xlsx
+++ b/branches/Richard/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
